--- a/backend/excel_files/boxes.xlsx
+++ b/backend/excel_files/boxes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zoran\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ilija\Desktop\RW_Destroy\backend\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{6EF6F98D-BA6B-4FC7-9ED0-ADBAF04FCA6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A8A6786-7AE3-45C8-A220-0FD12FB1FCAA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C43221-57F8-4AEC-BCE3-46D5ADBDDA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4365" yWindow="3045" windowWidth="15225" windowHeight="7875" xr2:uid="{06089E0E-4314-4FC5-9E03-EBF88954075E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="14976" xr2:uid="{06089E0E-4314-4FC5-9E03-EBF88954075E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,47 +50,53 @@
     <t>Adiko</t>
   </si>
   <si>
-    <t>026000345123</t>
-  </si>
-  <si>
-    <t>026000345124</t>
-  </si>
-  <si>
-    <t>026000345125</t>
-  </si>
-  <si>
-    <t>026000345126</t>
-  </si>
-  <si>
-    <t>026000345127</t>
-  </si>
-  <si>
-    <t>026000345128</t>
-  </si>
-  <si>
-    <t>026000345129</t>
-  </si>
-  <si>
-    <t>026000345130</t>
-  </si>
-  <si>
-    <t>026000345131</t>
-  </si>
-  <si>
-    <t>026000345132</t>
-  </si>
-  <si>
-    <t>026000345133</t>
+    <t>026002680627</t>
+  </si>
+  <si>
+    <t>026002680628</t>
+  </si>
+  <si>
+    <t>026002680629</t>
+  </si>
+  <si>
+    <t>026002680630</t>
+  </si>
+  <si>
+    <t>026002680632</t>
+  </si>
+  <si>
+    <t>026002680633</t>
+  </si>
+  <si>
+    <t>026002680634</t>
+  </si>
+  <si>
+    <t>026002680635</t>
+  </si>
+  <si>
+    <t>026002680636</t>
+  </si>
+  <si>
+    <t>026002680637</t>
+  </si>
+  <si>
+    <t>026002680631</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -154,9 +160,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -194,7 +200,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -300,7 +306,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -442,7 +448,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -452,14 +458,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B8B44B-0767-423C-9FCB-037DC865BD52}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -470,7 +478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -481,7 +489,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -492,7 +500,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -503,7 +511,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -514,84 +522,85 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="C12" s="2">
         <v>300</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/backend/excel_files/boxes.xlsx
+++ b/backend/excel_files/boxes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ilija\Desktop\RW_Destroy\backend\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C43221-57F8-4AEC-BCE3-46D5ADBDDA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4798433A-1422-44AD-AB4F-52451838A722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="14976" xr2:uid="{06089E0E-4314-4FC5-9E03-EBF88954075E}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t>Tura</t>
   </si>
   <si>
-    <t>Adiko</t>
-  </si>
-  <si>
     <t>026002680627</t>
   </si>
   <si>
@@ -81,6 +78,9 @@
   </si>
   <si>
     <t>026002680631</t>
+  </si>
+  <si>
+    <t>Greba</t>
   </si>
 </sst>
 </file>
@@ -459,7 +459,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -480,10 +480,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="C2" s="2">
         <v>300</v>
@@ -491,10 +491,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2">
         <v>300</v>
@@ -502,10 +502,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2">
         <v>300</v>
@@ -513,10 +513,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2">
         <v>300</v>
@@ -524,10 +524,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2">
         <v>300</v>
@@ -535,10 +535,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2">
         <v>300</v>
@@ -546,10 +546,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2">
         <v>300</v>
@@ -557,10 +557,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="2">
         <v>300</v>
@@ -568,10 +568,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2">
         <v>300</v>
@@ -579,10 +579,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2">
         <v>300</v>
@@ -590,10 +590,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2">
         <v>300</v>

--- a/backend/excel_files/boxes.xlsx
+++ b/backend/excel_files/boxes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ilija\Desktop\RW_Destroy\backend\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4798433A-1422-44AD-AB4F-52451838A722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049CF127-CF9A-4BE5-8F5D-A4A59F84B392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="14976" xr2:uid="{06089E0E-4314-4FC5-9E03-EBF88954075E}"/>
   </bookViews>
@@ -80,7 +80,7 @@
     <t>026002680631</t>
   </si>
   <si>
-    <t>Greba</t>
+    <t>Adiko</t>
   </si>
 </sst>
 </file>
@@ -459,7 +459,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/backend/excel_files/boxes.xlsx
+++ b/backend/excel_files/boxes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ilija\Desktop\RW_Destroy\backend\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049CF127-CF9A-4BE5-8F5D-A4A59F84B392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C02F4B7-6D78-46A4-ACEC-3CBBEA95E82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="14976" xr2:uid="{06089E0E-4314-4FC5-9E03-EBF88954075E}"/>
+    <workbookView xWindow="4392" yWindow="3996" windowWidth="18432" windowHeight="10764" xr2:uid="{06089E0E-4314-4FC5-9E03-EBF88954075E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -459,7 +459,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
